--- a/medicine/Sexualité et sexologie/Affaire_des_viols_de_Mazan/Affaire_des_viols_de_Mazan.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_des_viols_de_Mazan/Affaire_des_viols_de_Mazan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'affaire des viols de Mazan est une affaire judiciaire française, dans laquelle 51 hommes sont accusés d'avoir violé la même femme, droguée à son insu par son mari, Dominique P., également mis en cause. Les faits se déroulent de juillet 2011 à octobre 2020 dans la commune de Mazan (Vaucluse).
 </t>
@@ -511,11 +523,13 @@
           <t>Contexte et faits reprochés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2020, Dominique P., alors âgé de 67 ans[1], est arrêté dans un supermarché de Carpentras après avoir filmé l’entrejambe de clientes sous leurs jupes sans leur consentement[2],[1]. Lors de l'enquête préliminaire pour ce délit de « captation d'image impudique », les enquêteurs découvrent dans le matériel informatique saisi des échanges sur le site de rencontres Coco.fr[3], connu pour ses dérives[4], où il invite des inconnus à violer sa femme inconsciente après qu'il lui a administré un puissant anxiolytique, le Temesta (lorazépam), ainsi que des vidéos de ces viols dans une section intitulée « à son insu »[2],[5].
-Les enquêteurs déterminent que les faits se sont déroulés de juillet 2011 à octobre 2020 et répertorient 92 viols sur la victime, qui ont eu lieu dans la ville de Mazan, dans la chambre du couple[2]. Cette dernière, en couple avec Dominique P. depuis une cinquantaine d'années[6], ne se souvient pas des faits à cause de la soumission chimique[1] et ne découvre ce dont elle a été victime qu'au moment de l'enquête[2].
-Les policiers découvrent que la fille aînée du couple apparaît également inconsciente et en sous-vêtements sur certaines images[2]. Dominique P. a également filmé à leur insu ses belles-filles et a diffusé les vidéos sur le même site[2],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2020, Dominique P., alors âgé de 67 ans, est arrêté dans un supermarché de Carpentras après avoir filmé l’entrejambe de clientes sous leurs jupes sans leur consentement,. Lors de l'enquête préliminaire pour ce délit de « captation d'image impudique », les enquêteurs découvrent dans le matériel informatique saisi des échanges sur le site de rencontres Coco.fr, connu pour ses dérives, où il invite des inconnus à violer sa femme inconsciente après qu'il lui a administré un puissant anxiolytique, le Temesta (lorazépam), ainsi que des vidéos de ces viols dans une section intitulée « à son insu »,.
+Les enquêteurs déterminent que les faits se sont déroulés de juillet 2011 à octobre 2020 et répertorient 92 viols sur la victime, qui ont eu lieu dans la ville de Mazan, dans la chambre du couple. Cette dernière, en couple avec Dominique P. depuis une cinquantaine d'années, ne se souvient pas des faits à cause de la soumission chimique et ne découvre ce dont elle a été victime qu'au moment de l'enquête.
+Les policiers découvrent que la fille aînée du couple apparaît également inconsciente et en sous-vêtements sur certaines images. Dominique P. a également filmé à leur insu ses belles-filles et a diffusé les vidéos sur le même site,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Profil de la victime</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appelée de façon fictive Françoise P. par la presse, la victime est une femme septuagénaire, mariée à Dominique P. Elle s'est plainte durant de longues années de douleurs gynécologiques, d'absences et de fatigue[2]. La découverte a posteriori des abus commis sur elle alors qu'elle était inconsciente, droguée par son mari avec du lorazépam, représente un traumatisme psychique grave selon un psychiatre l'ayant examinée[2]. Elle demande le divorce et déménage[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appelée de façon fictive Françoise P. par la presse, la victime est une femme septuagénaire, mariée à Dominique P. Elle s'est plainte durant de longues années de douleurs gynécologiques, d'absences et de fatigue. La découverte a posteriori des abus commis sur elle alors qu'elle était inconsciente, droguée par son mari avec du lorazépam, représente un traumatisme psychique grave selon un psychiatre l'ayant examinée. Elle demande le divorce et déménage.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Profils des accusés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les policiers dressent une liste de 83 violeurs, parmi lesquels 51 sont identifiés, auxquels s'ajoute le mari de la victime[2]. Tous ont été arrêtés lors d'une dizaine de vagues d'interpellations puis incarcérés[2],[6]. Il s'agit de 52 hommes « ordinaires » selon le journal Le Monde[2], « monsieur tout-le-monde » d'après RMC[6], ayant entre 26 et 73 ans, venant tous de la région[2]. Leurs professions et occupations sont variées, certaines d'utilité publique : pompier, militaire, gardien de prison, conseiller municipal[2]... Plusieurs d'entre eux ont déjà été condamnés pour des faits de violence conjugale ou de viols, et de grandes quantités d'images pédocriminelles sont retrouvées lors de l'enquête[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les policiers dressent une liste de 83 violeurs, parmi lesquels 51 sont identifiés, auxquels s'ajoute le mari de la victime. Tous ont été arrêtés lors d'une dizaine de vagues d'interpellations puis incarcérés,. Il s'agit de 52 hommes « ordinaires » selon le journal Le Monde, « monsieur tout-le-monde » d'après RMC, ayant entre 26 et 73 ans, venant tous de la région. Leurs professions et occupations sont variées, certaines d'utilité publique : pompier, militaire, gardien de prison, conseiller municipal... Plusieurs d'entre eux ont déjà été condamnés pour des faits de violence conjugale ou de viols, et de grandes quantités d'images pédocriminelles sont retrouvées lors de l'enquête.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Procès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parquet d'Avignon requiert le renvoi devant la cour criminelle du Vaucluse pour viol aggravé[2]. Le procès est prévu du 2 septembre 2024 au 20 décembre de la même année[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parquet d'Avignon requiert le renvoi devant la cour criminelle du Vaucluse pour viol aggravé. Le procès est prévu du 2 septembre 2024 au 20 décembre de la même année.
 </t>
         </is>
       </c>
@@ -637,10 +657,12 @@
           <t>Affaires judiciaires antérieures</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enquête révèle également que Dominique P. a déjà été arrêté en 2010 pour avoir filmé l’entrejambe de femmes sous leurs jupes sans leur consentement, dans un supermarché[2]. À cette occasion un prélèvement ADN est réalisé, qui correspond à l'ADN retrouvé sous la chaussure d'une victime d'agression en 1999[2]. Dominique P. commence par nier les faits, puis les reconnaît après avoir eu connaissance des preuves ADN[2]. Il est mis en examen pour cette agression.
-Il est aussi mis en examen pour le viol suivi du meurtre non élucidé de Sophie Narme (en 1991)[9], qui présente plusieurs éléments de similarité[2],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enquête révèle également que Dominique P. a déjà été arrêté en 2010 pour avoir filmé l’entrejambe de femmes sous leurs jupes sans leur consentement, dans un supermarché. À cette occasion un prélèvement ADN est réalisé, qui correspond à l'ADN retrouvé sous la chaussure d'une victime d'agression en 1999. Dominique P. commence par nier les faits, puis les reconnaît après avoir eu connaissance des preuves ADN. Il est mis en examen pour cette agression.
+Il est aussi mis en examen pour le viol suivi du meurtre non élucidé de Sophie Narme (en 1991), qui présente plusieurs éléments de similarité,.
 </t>
         </is>
       </c>
